--- a/settings/data/BossRoutine.xlsx
+++ b/settings/data/BossRoutine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977E13E2-6019-458E-98D4-6F6AA17930D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C395974-1ACC-44AC-9601-3B818A9CF512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>string</t>
   </si>
@@ -258,9 +258,6 @@
     <t>慧音二非中的招式，当BOSS头槌撞到版边时释放，创建发射随机弹的发弹点</t>
   </si>
   <si>
-    <t>0|720|1920|720|6</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">结束时间
 </t>
@@ -326,16 +323,26 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>500|999|1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>慧音一符中的招式，创建发射顺时针旋转激光段的使魔</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>慧音一符中的招式，创建发射逆时针旋转激光段的使魔</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>慧音一符中的招式，创建发射平行激光的发弹点，和上一个错开</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000|999|1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|540|1920|540|7</t>
+  </si>
+  <si>
+    <t>160|540|1760|540|6</t>
   </si>
 </sst>
 </file>
@@ -861,13 +868,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -961,13 +968,13 @@
         <v>11</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>13</v>
@@ -1011,7 +1018,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>26</v>
@@ -1020,7 +1027,7 @@
         <v>27</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>28</v>
@@ -1029,7 +1036,7 @@
         <v>29</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>30</v>
@@ -1072,7 +1079,7 @@
         <v>34</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L4" s="2" t="str">
         <f>[2]Enemy!$A$16</f>
@@ -1122,7 +1129,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="str">
-        <f t="shared" ref="A6:A12" si="0">"brou_"&amp;MID(C6,6,999)&amp;"_"&amp;D6</f>
+        <f t="shared" ref="A6:A13" si="0">"brou_"&amp;MID(C6,6,999)&amp;"_"&amp;D6</f>
         <v>brou_keine_ns1_3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1180,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -1192,10 +1199,10 @@
         <v>38</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L7" s="2" t="str">
         <f>[3]d4c!$A$7</f>
@@ -1207,11 +1214,11 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A8" si="1">"brou_"&amp;MID(C8,6,999)&amp;"_"&amp;D8</f>
         <v>brou_keine_sc1_2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>[1]keine!$A$5</f>
@@ -1224,10 +1231,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H8" s="2">
         <v>99</v>
@@ -1235,12 +1242,15 @@
       <c r="I8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>39</v>
+      <c r="J8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="L8" s="2" t="str">
-        <f>[3]d4c!$A$8</f>
-        <v>dcrt_keine_sc1_2</v>
+        <f>[3]d4c!$A$7</f>
+        <v>dcrt_keine_sc1_1</v>
       </c>
       <c r="M8" s="2">
         <v>30</v>
@@ -1248,11 +1258,11 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="str">
-        <f>"brou_"&amp;MID(C9,6,999)&amp;"_"&amp;D9</f>
+        <f t="shared" si="0"/>
         <v>brou_keine_sc1_3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>[1]keine!$A$5</f>
@@ -1265,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -1274,17 +1284,17 @@
         <v>99</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="L9" s="2" t="str">
-        <f>[2]Enemy!$A$18</f>
-        <v>enm_keine_sc1_1</v>
+        <f>[3]d4c!$A$8</f>
+        <v>dcrt_keine_sc1_2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
@@ -1293,7 +1303,7 @@
         <v>brou_keine_sc1_4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>[1]keine!$A$5</f>
@@ -1306,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -1321,33 +1331,33 @@
         <v>34</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="L10" s="2" t="str">
-        <f>[2]Enemy!$A$19</f>
-        <v>enm_keine_sc1_2</v>
+        <f>[2]Enemy!$A$18</f>
+        <v>enm_keine_sc1_1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>brou_keine_ns2_1</v>
+        <f>"brou_"&amp;MID(C11,6,999)&amp;"_"&amp;D11</f>
+        <v>brou_keine_sc1_5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>[1]keine!$A$6</f>
-        <v>bprc_keine_ns2</v>
+        <f>[1]keine!$A$5</f>
+        <v>bprc_keine_sc1</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -1356,47 +1366,88 @@
         <v>99</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P11" s="2" t="str">
-        <f>A12</f>
-        <v>brou_keine_ns2_2</v>
+        <v>33</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f>[2]Enemy!$A$19</f>
+        <v>enm_keine_sc1_2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>brou_keine_ns2_2</v>
+        <v>brou_keine_ns2_1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="str">
         <f>[1]keine!$A$6</f>
         <v>bprc_keine_ns2</v>
       </c>
       <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>99</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f>A13</f>
+        <v>brou_keine_ns2_2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>brou_keine_ns2_2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f>[1]keine!$A$6</f>
+        <v>bprc_keine_ns2</v>
+      </c>
+      <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="E12" s="2" t="b">
+      <c r="E13" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="L13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="2">
         <v>30</v>
       </c>
     </row>

--- a/settings/data/BossRoutine.xlsx
+++ b/settings/data/BossRoutine.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C395974-1ACC-44AC-9601-3B818A9CF512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="11630"/>
   </bookViews>
   <sheets>
     <sheet name="keine_routine" sheetId="1" r:id="rId1"/>
@@ -78,7 +72,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -90,7 +83,6 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -99,6 +91,36 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">结束时间
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>招式结束时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">类型
 </t>
     </r>
@@ -107,7 +129,6 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -117,21 +138,45 @@
     </r>
   </si>
   <si>
-    <t>生成参数</t>
-  </si>
-  <si>
-    <t>生成物ID</t>
-  </si>
-  <si>
-    <t>弹幕伤害</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">生成规则
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inplace.原地：在BOSS当前位置生成一个；
+circle.环形：在BOSS为圆心的圆周上均分生成，参数为[数量，圆半径，第一个生成物的极角（向右为极轴正方向）]
+screen_line.屏幕坐标系线形：在一条线段上均分生成，线段的位置在世界坐标系（原点在左上，向右向下为正方向）中定义。参数为[线段起点横坐标，线段起点纵坐标，线段中点横坐标，线段终点纵坐标，数量]</t>
+    </r>
+  </si>
+  <si>
+    <t>生成参数</t>
+  </si>
+  <si>
+    <t>生成物ID</t>
+  </si>
+  <si>
+    <t>弹幕伤害</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -143,7 +188,6 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -160,7 +204,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -172,7 +215,6 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -201,18 +243,27 @@
     <t>first_use_time</t>
   </si>
   <si>
+    <t>end_time</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
     <t>create_rule</t>
   </si>
   <si>
+    <t>create_parameter</t>
+  </si>
+  <si>
     <t>creature_id</t>
   </si>
   <si>
     <t>danmaku_damage</t>
   </si>
   <si>
+    <t>physical_rule</t>
+  </si>
+  <si>
     <t>physical_parameter</t>
   </si>
   <si>
@@ -228,6 +279,9 @@
     <t>circle</t>
   </si>
   <si>
+    <t>1|100|-90</t>
+  </si>
+  <si>
     <t>慧音一非中的招式，创建发射逆时针旋转十字弹幕的使魔</t>
   </si>
   <si>
@@ -246,110 +300,56 @@
     <t>慧音一符中的招式，创建发射平行激光的发弹点</t>
   </si>
   <si>
+    <t>screen_line</t>
+  </si>
+  <si>
+    <t>0|540|1920|540|7</t>
+  </si>
+  <si>
+    <t>慧音一符中的招式，创建发射平行激光的发弹点，和上一个错开</t>
+  </si>
+  <si>
+    <t>160|540|1760|540|6</t>
+  </si>
+  <si>
     <t>慧音一符中的招式，创建发射自机狙激光的发弹点</t>
   </si>
   <si>
+    <t>慧音一符中的招式，创建发射顺时针旋转激光段的使魔</t>
+  </si>
+  <si>
+    <t>慧音一符中的招式，创建发射逆时针旋转激光段的使魔</t>
+  </si>
+  <si>
     <t>慧音二非中的招式，实现BOSS的头槌攻击</t>
   </si>
   <si>
     <t>physical</t>
   </si>
   <si>
+    <t>aimed_charge</t>
+  </si>
+  <si>
+    <t>10000|999|1</t>
+  </si>
+  <si>
     <t>慧音二非中的招式，当BOSS头槌撞到版边时释放，创建发射随机弹的发弹点</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">结束时间
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>招式结束时间</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_parameter</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>screen_line</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">生成规则
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>inplace.原地：在BOSS当前位置生成一个；
-circle.环形：在BOSS为圆心的圆周上均分生成，参数为[数量，圆半径，第一个生成物的极角（向右为极轴正方向）]
-screen_line.屏幕坐标系线形：在一条线段上均分生成，线段的位置在世界坐标系（原点在左上，向右向下为正方向）中定义。参数为[线段起点横坐标，线段起点纵坐标，线段中点横坐标，线段终点纵坐标，数量]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical_rule</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>aimed_charge</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>dcrt_keine_ns2_1</t>
-  </si>
-  <si>
-    <t>1|100|-90</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>慧音一符中的招式，创建发射顺时针旋转激光段的使魔</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>慧音一符中的招式，创建发射逆时针旋转激光段的使魔</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>慧音一符中的招式，创建发射平行激光的发弹点，和上一个错开</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000|999|1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|540|1920|540|7</t>
-  </si>
-  <si>
-    <t>160|540|1760|540|6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,7 +361,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -369,31 +368,157 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="4"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -401,43 +526,205 @@
       <sz val="10"/>
       <color theme="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -460,13 +747,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -485,44 +1014,70 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="keine"/>
     </sheetNames>
@@ -550,11 +1105,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Enemy"/>
     </sheetNames>
@@ -587,11 +1139,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="d4c"/>
     </sheetNames>
@@ -862,40 +1411,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.2545454545455" style="2" customWidth="1"/>
     <col min="2" max="2" width="74" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.7545454545455" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.2545454545455" style="2" customWidth="1"/>
     <col min="5" max="6" width="20.5" style="2" customWidth="1"/>
     <col min="7" max="9" width="25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="38.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.25" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16.25" style="3" customWidth="1"/>
-    <col min="16" max="16" width="20.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="38.2545454545455" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.2545454545455" style="3" customWidth="1"/>
+    <col min="12" max="12" width="20.2545454545455" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.8727272727273" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.7545454545455" style="2" customWidth="1"/>
+    <col min="15" max="15" width="16.2545454545455" style="3" customWidth="1"/>
+    <col min="16" max="16" width="20.2545454545455" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -945,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" ht="151" spans="1:16">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -967,91 +1517,91 @@
       <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>45</v>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>46</v>
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="str">
         <f>"brou_"&amp;MID(C4,6,999)&amp;"_"&amp;D4</f>
         <v>brou_keine_ns1_1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>[1]keine!$A$4</f>
@@ -1073,26 +1623,26 @@
         <v>99</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="L4" s="2" t="str">
         <f>[2]Enemy!$A$16</f>
         <v>enm_keine_ns1_1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="str">
         <f>"brou_"&amp;MID(C5,6,999)&amp;"_"&amp;D5</f>
         <v>brou_keine_ns1_2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>[1]keine!$A$4</f>
@@ -1114,26 +1664,26 @@
         <v>99</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L5" s="2" t="str">
         <f>[2]Enemy!$A$17</f>
         <v>enm_keine_ns1_2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="str">
         <f t="shared" ref="A6:A13" si="0">"brou_"&amp;MID(C6,6,999)&amp;"_"&amp;D6</f>
         <v>brou_keine_ns1_3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>[1]keine!$A$4</f>
@@ -1155,10 +1705,10 @@
         <v>99</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L6" s="2" t="str">
         <f>[3]d4c!$A$4</f>
@@ -1168,13 +1718,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_sc1_1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>[1]keine!$A$5</f>
@@ -1196,13 +1746,13 @@
         <v>99</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="L7" s="2" t="str">
         <f>[3]d4c!$A$7</f>
@@ -1212,13 +1762,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="str">
         <f t="shared" ref="A8" si="1">"brou_"&amp;MID(C8,6,999)&amp;"_"&amp;D8</f>
         <v>brou_keine_sc1_2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>[1]keine!$A$5</f>
@@ -1240,13 +1790,13 @@
         <v>99</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L8" s="2" t="str">
         <f>[3]d4c!$A$7</f>
@@ -1256,13 +1806,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_sc1_3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>[1]keine!$A$5</f>
@@ -1284,10 +1834,10 @@
         <v>99</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L9" s="2" t="str">
         <f>[3]d4c!$A$8</f>
@@ -1297,13 +1847,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="str">
-        <f>"brou_"&amp;MID(C10,6,999)&amp;"_"&amp;D10</f>
+        <f t="shared" si="0"/>
         <v>brou_keine_sc1_4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>[1]keine!$A$5</f>
@@ -1325,26 +1875,26 @@
         <v>99</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="L10" s="2" t="str">
         <f>[2]Enemy!$A$18</f>
         <v>enm_keine_sc1_1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="str">
-        <f>"brou_"&amp;MID(C11,6,999)&amp;"_"&amp;D11</f>
+        <f t="shared" si="0"/>
         <v>brou_keine_sc1_5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>[1]keine!$A$5</f>
@@ -1366,26 +1916,26 @@
         <v>99</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L11" s="2" t="str">
         <f>[2]Enemy!$A$19</f>
         <v>enm_keine_sc1_2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_ns2_1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="str">
         <f>[1]keine!$A$6</f>
@@ -1398,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -1407,10 +1957,10 @@
         <v>99</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>57</v>
@@ -1420,13 +1970,13 @@
         <v>brou_keine_ns2_2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_ns2_2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>[1]keine!$A$6</f>
@@ -1439,21 +1989,21 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M13" s="2">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/BossRoutine.xlsx
+++ b/settings/data/BossRoutine.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAE93F9-2171-4F9C-A605-895AA2917579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="11630"/>
+    <workbookView xWindow="-2052" yWindow="1728" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keine_routine" sheetId="1" r:id="rId1"/>
@@ -264,92 +270,88 @@
     <t>physical_rule</t>
   </si>
   <si>
+    <t>followup</t>
+  </si>
+  <si>
+    <t>慧音一非中的招式，创建发射顺时针旋转十字弹幕的使魔</t>
+  </si>
+  <si>
+    <t>enemy</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>1|100|-90</t>
+  </si>
+  <si>
+    <t>慧音一非中的招式，创建发射逆时针旋转十字弹幕的使魔</t>
+  </si>
+  <si>
+    <t>1|100|90</t>
+  </si>
+  <si>
+    <t>慧音一非中的招式，创建发射环形自机狙弹幕的发弹点</t>
+  </si>
+  <si>
+    <t>dcreator</t>
+  </si>
+  <si>
+    <t>inplace</t>
+  </si>
+  <si>
+    <t>慧音一符中的招式，创建发射平行激光的发弹点</t>
+  </si>
+  <si>
+    <t>screen_line</t>
+  </si>
+  <si>
+    <t>0|540|1920|540|7</t>
+  </si>
+  <si>
+    <t>慧音一符中的招式，创建发射平行激光的发弹点，和上一个错开</t>
+  </si>
+  <si>
+    <t>160|540|1760|540|6</t>
+  </si>
+  <si>
+    <t>慧音一符中的招式，创建发射自机狙激光的发弹点</t>
+  </si>
+  <si>
+    <t>慧音一符中的招式，创建发射顺时针旋转激光段的使魔</t>
+  </si>
+  <si>
+    <t>慧音一符中的招式，创建发射逆时针旋转激光段的使魔</t>
+  </si>
+  <si>
+    <t>慧音二非中的招式，实现BOSS的头槌攻击</t>
+  </si>
+  <si>
+    <t>physical</t>
+  </si>
+  <si>
+    <t>aimed_charge</t>
+  </si>
+  <si>
+    <t>慧音二非中的招式，当BOSS头槌撞到版边时释放，创建发射随机弹的发弹点</t>
+  </si>
+  <si>
+    <t>dcrt_keine_ns2_1</t>
+  </si>
+  <si>
     <t>physical_parameter</t>
-  </si>
-  <si>
-    <t>followup</t>
-  </si>
-  <si>
-    <t>慧音一非中的招式，创建发射顺时针旋转十字弹幕的使魔</t>
-  </si>
-  <si>
-    <t>enemy</t>
-  </si>
-  <si>
-    <t>circle</t>
-  </si>
-  <si>
-    <t>1|100|-90</t>
-  </si>
-  <si>
-    <t>慧音一非中的招式，创建发射逆时针旋转十字弹幕的使魔</t>
-  </si>
-  <si>
-    <t>1|100|90</t>
-  </si>
-  <si>
-    <t>慧音一非中的招式，创建发射环形自机狙弹幕的发弹点</t>
-  </si>
-  <si>
-    <t>dcreator</t>
-  </si>
-  <si>
-    <t>inplace</t>
-  </si>
-  <si>
-    <t>慧音一符中的招式，创建发射平行激光的发弹点</t>
-  </si>
-  <si>
-    <t>screen_line</t>
-  </si>
-  <si>
-    <t>0|540|1920|540|7</t>
-  </si>
-  <si>
-    <t>慧音一符中的招式，创建发射平行激光的发弹点，和上一个错开</t>
-  </si>
-  <si>
-    <t>160|540|1760|540|6</t>
-  </si>
-  <si>
-    <t>慧音一符中的招式，创建发射自机狙激光的发弹点</t>
-  </si>
-  <si>
-    <t>慧音一符中的招式，创建发射顺时针旋转激光段的使魔</t>
-  </si>
-  <si>
-    <t>慧音一符中的招式，创建发射逆时针旋转激光段的使魔</t>
-  </si>
-  <si>
-    <t>慧音二非中的招式，实现BOSS的头槌攻击</t>
-  </si>
-  <si>
-    <t>physical</t>
-  </si>
-  <si>
-    <t>aimed_charge</t>
-  </si>
-  <si>
-    <t>10000|999|1</t>
-  </si>
-  <si>
-    <t>慧音二非中的招式，当BOSS头槌撞到版边时释放，创建发射随机弹的发弹点</t>
-  </si>
-  <si>
-    <t>dcrt_keine_ns2_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500|10|1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,150 +374,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="4"/>
       <name val="宋体"/>
@@ -529,202 +387,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -747,255 +433,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1014,69 +458,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="keine"/>
@@ -1105,7 +511,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Enemy"/>
@@ -1139,7 +545,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="d4c"/>
@@ -1411,41 +817,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.2545454545455" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" style="2" customWidth="1"/>
     <col min="2" max="2" width="74" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.7545454545455" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.2545454545455" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="20.44140625" style="2" customWidth="1"/>
     <col min="7" max="9" width="25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="38.2545454545455" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.2545454545455" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.2545454545455" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.8727272727273" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.7545454545455" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16.2545454545455" style="3" customWidth="1"/>
-    <col min="16" max="16" width="20.2545454545455" style="2" customWidth="1"/>
+    <col min="10" max="10" width="38.21875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="20.21875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.77734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="16.21875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="20.21875" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1495,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="151" spans="1:16">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="140.4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1545,7 +950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:16">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1588,20 +993,20 @@
       <c r="N3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>"brou_"&amp;MID(C4,6,999)&amp;"_"&amp;D4</f>
         <v>brou_keine_ns1_1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>[1]keine!$A$4</f>
@@ -1623,26 +1028,26 @@
         <v>99</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="L4" s="2" t="str">
         <f>[2]Enemy!$A$16</f>
         <v>enm_keine_ns1_1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>"brou_"&amp;MID(C5,6,999)&amp;"_"&amp;D5</f>
         <v>brou_keine_ns1_2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>[1]keine!$A$4</f>
@@ -1664,26 +1069,26 @@
         <v>99</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L5" s="2" t="str">
         <f>[2]Enemy!$A$17</f>
         <v>enm_keine_ns1_2</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f t="shared" ref="A6:A13" si="0">"brou_"&amp;MID(C6,6,999)&amp;"_"&amp;D6</f>
         <v>brou_keine_ns1_3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>[1]keine!$A$4</f>
@@ -1705,10 +1110,10 @@
         <v>99</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="L6" s="2" t="str">
         <f>[3]d4c!$A$4</f>
@@ -1718,13 +1123,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_sc1_1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>[1]keine!$A$5</f>
@@ -1746,13 +1151,13 @@
         <v>99</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="L7" s="2" t="str">
         <f>[3]d4c!$A$7</f>
@@ -1762,13 +1167,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f t="shared" ref="A8" si="1">"brou_"&amp;MID(C8,6,999)&amp;"_"&amp;D8</f>
         <v>brou_keine_sc1_2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>[1]keine!$A$5</f>
@@ -1790,13 +1195,13 @@
         <v>99</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="2" t="str">
         <f>[3]d4c!$A$7</f>
@@ -1806,13 +1211,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_sc1_3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>[1]keine!$A$5</f>
@@ -1834,10 +1239,10 @@
         <v>99</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="L9" s="2" t="str">
         <f>[3]d4c!$A$8</f>
@@ -1847,13 +1252,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_sc1_4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>[1]keine!$A$5</f>
@@ -1875,26 +1280,26 @@
         <v>99</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="L10" s="2" t="str">
         <f>[2]Enemy!$A$18</f>
         <v>enm_keine_sc1_1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_sc1_5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>[1]keine!$A$5</f>
@@ -1916,26 +1321,26 @@
         <v>99</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L11" s="2" t="str">
         <f>[2]Enemy!$A$19</f>
         <v>enm_keine_sc1_2</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_ns2_1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="str">
         <f>[1]keine!$A$6</f>
@@ -1957,26 +1362,26 @@
         <v>99</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>57</v>
+      <c r="O12" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="P12" s="2" t="str">
         <f>A13</f>
         <v>brou_keine_ns2_2</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_ns2_2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>[1]keine!$A$6</f>
@@ -1989,21 +1394,21 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M13" s="2">
         <v>30</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/BossRoutine.xlsx
+++ b/settings/data/BossRoutine.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAE93F9-2171-4F9C-A605-895AA2917579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2052" yWindow="1728" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="keine_routine" sheetId="1" r:id="rId1"/>
@@ -38,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
   <si>
     <t>string</t>
   </si>
@@ -270,6 +264,9 @@
     <t>physical_rule</t>
   </si>
   <si>
+    <t>physical_parameter</t>
+  </si>
+  <si>
     <t>followup</t>
   </si>
   <si>
@@ -333,25 +330,47 @@
     <t>aimed_charge</t>
   </si>
   <si>
+    <t>10000|999|1</t>
+  </si>
+  <si>
     <t>慧音二非中的招式，当BOSS头槌撞到版边时释放，创建发射随机弹的发弹点</t>
   </si>
   <si>
     <t>dcrt_keine_ns2_1</t>
   </si>
   <si>
-    <t>physical_parameter</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500|10|1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>慧音二符中的招式，创建战船敌人（第一圈）</t>
+  </si>
+  <si>
+    <t>6|320|0</t>
+  </si>
+  <si>
+    <t>慧音二符中的招式，创建战船敌人（第二圈）</t>
+  </si>
+  <si>
+    <t>6|554|30</t>
+  </si>
+  <si>
+    <t>慧音二符中的招式，创建战船敌人（第三圈）</t>
+  </si>
+  <si>
+    <t>6|960|0</t>
+  </si>
+  <si>
+    <t>慧音二符中的招式，创建发射能够点燃战船敌人的环形火焰弹的发弹点</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,43 +393,359 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -433,13 +768,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -458,31 +1035,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="keine"/>
@@ -511,7 +1126,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Enemy"/>
@@ -538,6 +1153,11 @@
             <v>enm_keine_sc1_2</v>
           </cell>
         </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>enm_keine_sc2</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -545,7 +1165,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="d4c"/>
@@ -565,6 +1185,11 @@
         <row r="8">
           <cell r="A8" t="str">
             <v>dcrt_keine_sc1_2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>dcrt_keine_sc2_1</v>
           </cell>
         </row>
       </sheetData>
@@ -817,40 +1442,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.2545454545455" style="2" customWidth="1"/>
     <col min="2" max="2" width="74" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.7545454545455" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.2545454545455" style="2" customWidth="1"/>
+    <col min="5" max="6" width="20.5" style="2" customWidth="1"/>
     <col min="7" max="9" width="25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="38.21875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.88671875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.77734375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16.21875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="20.21875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="38.2545454545455" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.2545454545455" style="3" customWidth="1"/>
+    <col min="12" max="12" width="20.2545454545455" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.8727272727273" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.7545454545455" style="2" customWidth="1"/>
+    <col min="15" max="15" width="16.2545454545455" style="3" customWidth="1"/>
+    <col min="16" max="16" width="20.2545454545455" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="140.4" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="151" spans="1:16">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -950,7 +1576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -993,20 +1619,20 @@
       <c r="N3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>58</v>
+      <c r="O3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="str">
         <f>"brou_"&amp;MID(C4,6,999)&amp;"_"&amp;D4</f>
         <v>brou_keine_ns1_1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>[1]keine!$A$4</f>
@@ -1028,26 +1654,26 @@
         <v>99</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L4" s="2" t="str">
         <f>[2]Enemy!$A$16</f>
         <v>enm_keine_ns1_1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="str">
         <f>"brou_"&amp;MID(C5,6,999)&amp;"_"&amp;D5</f>
         <v>brou_keine_ns1_2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>[1]keine!$A$4</f>
@@ -1069,26 +1695,26 @@
         <v>99</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L5" s="2" t="str">
         <f>[2]Enemy!$A$17</f>
         <v>enm_keine_ns1_2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="str">
         <f t="shared" ref="A6:A13" si="0">"brou_"&amp;MID(C6,6,999)&amp;"_"&amp;D6</f>
         <v>brou_keine_ns1_3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>[1]keine!$A$4</f>
@@ -1110,10 +1736,10 @@
         <v>99</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L6" s="2" t="str">
         <f>[3]d4c!$A$4</f>
@@ -1123,13 +1749,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_sc1_1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>[1]keine!$A$5</f>
@@ -1151,13 +1777,13 @@
         <v>99</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L7" s="2" t="str">
         <f>[3]d4c!$A$7</f>
@@ -1167,13 +1793,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="str">
         <f t="shared" ref="A8" si="1">"brou_"&amp;MID(C8,6,999)&amp;"_"&amp;D8</f>
         <v>brou_keine_sc1_2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>[1]keine!$A$5</f>
@@ -1195,29 +1821,30 @@
         <v>99</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="2" t="str">
         <f>[3]d4c!$A$7</f>
         <v>dcrt_keine_sc1_1</v>
       </c>
       <c r="M8" s="2">
+        <f>M7</f>
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_sc1_3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>[1]keine!$A$5</f>
@@ -1239,10 +1866,10 @@
         <v>99</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L9" s="2" t="str">
         <f>[3]d4c!$A$8</f>
@@ -1252,13 +1879,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_sc1_4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>[1]keine!$A$5</f>
@@ -1280,26 +1907,26 @@
         <v>99</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L10" s="2" t="str">
         <f>[2]Enemy!$A$18</f>
         <v>enm_keine_sc1_1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_sc1_5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>[1]keine!$A$5</f>
@@ -1321,26 +1948,26 @@
         <v>99</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L11" s="2" t="str">
         <f>[2]Enemy!$A$19</f>
         <v>enm_keine_sc1_2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_ns2_1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="str">
         <f>[1]keine!$A$6</f>
@@ -1353,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -1362,26 +1989,26 @@
         <v>99</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="P12" s="2" t="str">
         <f>A13</f>
         <v>brou_keine_ns2_2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_ns2_2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>[1]keine!$A$6</f>
@@ -1394,21 +2021,173 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M13" s="2">
         <v>30</v>
       </c>
     </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="str">
+        <f t="shared" ref="A14:A17" si="2">"brou_"&amp;MID(C14,6,999)&amp;"_"&amp;D14</f>
+        <v>brou_keine_sc1_1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>[1]keine!$A$5</f>
+        <v>bprc_keine_sc1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f>[2]Enemy!$A$20</f>
+        <v>enm_keine_sc2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>brou_keine_sc1_2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>[1]keine!$A$5</f>
+        <v>bprc_keine_sc1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="2" t="str">
+        <f>[2]Enemy!$A$20</f>
+        <v>enm_keine_sc2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>brou_keine_sc1_3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>[1]keine!$A$5</f>
+        <v>bprc_keine_sc1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f>[2]Enemy!$A$20</f>
+        <v>enm_keine_sc2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>brou_keine_sc1_4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f>[1]keine!$A$5</f>
+        <v>bprc_keine_sc1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2">
+        <v>4</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="2" t="str">
+        <f>[3]d4c!$A$12</f>
+        <v>dcrt_keine_sc2_1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/BossRoutine.xlsx
+++ b/settings/data/BossRoutine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="24750" windowHeight="11630"/>
   </bookViews>
   <sheets>
     <sheet name="keine_routine" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>string</t>
   </si>
@@ -337,24 +337,6 @@
   </si>
   <si>
     <t>dcrt_keine_ns2_1</t>
-  </si>
-  <si>
-    <t>慧音二符中的招式，创建战船敌人（第一圈）</t>
-  </si>
-  <si>
-    <t>6|320|0</t>
-  </si>
-  <si>
-    <t>慧音二符中的招式，创建战船敌人（第二圈）</t>
-  </si>
-  <si>
-    <t>6|554|30</t>
-  </si>
-  <si>
-    <t>慧音二符中的招式，创建战船敌人（第三圈）</t>
-  </si>
-  <si>
-    <t>6|960|0</t>
   </si>
   <si>
     <t>慧音二符中的招式，创建发射能够点燃战船敌人的环形火焰弹的发弹点</t>
@@ -1151,11 +1133,6 @@
         <row r="19">
           <cell r="A19" t="str">
             <v>enm_keine_sc1_2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>enm_keine_sc2</v>
           </cell>
         </row>
       </sheetData>
@@ -1448,14 +1425,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2033,10 +2010,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="2" t="str">
-        <f t="shared" ref="A14:A17" si="2">"brou_"&amp;MID(C14,6,999)&amp;"_"&amp;D14</f>
-        <v>brou_keine_sc1_1</v>
+        <f>"brou_"&amp;MID(C14,6,999)&amp;"_"&amp;D14</f>
+        <v>brou_keine_sc1_4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>60</v>
@@ -2046,7 +2023,7 @@
         <v>bprc_keine_sc1</v>
       </c>
       <c r="D14" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>1</v>
@@ -2055,133 +2032,19 @@
         <v>12</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="L14" s="2" t="str">
-        <f>[2]Enemy!$A$20</f>
-        <v>enm_keine_sc2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>brou_keine_sc1_2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f>[1]keine!$A$5</f>
-        <v>bprc_keine_sc1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>12</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L15" s="2" t="str">
-        <f>[2]Enemy!$A$20</f>
-        <v>enm_keine_sc2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>brou_keine_sc1_3</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <f>[1]keine!$A$5</f>
-        <v>bprc_keine_sc1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>12</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" s="2" t="str">
-        <f>[2]Enemy!$A$20</f>
-        <v>enm_keine_sc2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>brou_keine_sc1_4</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <f>[1]keine!$A$5</f>
-        <v>bprc_keine_sc1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>12</v>
-      </c>
-      <c r="G17" s="2">
-        <v>4</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="2" t="str">
         <f>[3]d4c!$A$12</f>
         <v>dcrt_keine_sc2_1</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M14" s="2">
         <v>30</v>
       </c>
     </row>

--- a/settings/data/BossRoutine.xlsx
+++ b/settings/data/BossRoutine.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF07D31-B4D5-41FB-9D65-5CE1C410420D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="11630"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keine_routine" sheetId="1" r:id="rId1"/>
@@ -330,9 +336,6 @@
     <t>aimed_charge</t>
   </si>
   <si>
-    <t>10000|999|1</t>
-  </si>
-  <si>
     <t>慧音二非中的招式，当BOSS头槌撞到版边时释放，创建发射随机弹的发弹点</t>
   </si>
   <si>
@@ -340,19 +343,17 @@
   </si>
   <si>
     <t>慧音二符中的招式，创建发射能够点燃战船敌人的环形火焰弹的发弹点</t>
+  </si>
+  <si>
+    <t>500|999|1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,150 +376,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="9"/>
       <name val="宋体"/>
@@ -532,202 +389,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -750,255 +435,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1017,69 +460,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="keine"/>
@@ -1108,7 +510,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Enemy"/>
@@ -1142,7 +544,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="d4c"/>
@@ -1419,41 +821,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.2545454545455" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" style="2" customWidth="1"/>
     <col min="2" max="2" width="74" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.7545454545455" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.2545454545455" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="20.44140625" style="2" customWidth="1"/>
     <col min="7" max="9" width="25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="38.2545454545455" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.2545454545455" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.2545454545455" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.8727272727273" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.7545454545455" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16.2545454545455" style="3" customWidth="1"/>
-    <col min="16" max="16" width="20.2545454545455" style="2" customWidth="1"/>
+    <col min="10" max="10" width="38.21875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="20.21875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.77734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="16.21875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="20.21875" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1503,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="151" spans="1:16">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="140.4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1553,7 +954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:16">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1603,7 +1004,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>"brou_"&amp;MID(C4,6,999)&amp;"_"&amp;D4</f>
         <v>brou_keine_ns1_1</v>
@@ -1644,7 +1045,7 @@
         <v>enm_keine_ns1_1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>"brou_"&amp;MID(C5,6,999)&amp;"_"&amp;D5</f>
         <v>brou_keine_ns1_2</v>
@@ -1685,7 +1086,7 @@
         <v>enm_keine_ns1_2</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f t="shared" ref="A6:A13" si="0">"brou_"&amp;MID(C6,6,999)&amp;"_"&amp;D6</f>
         <v>brou_keine_ns1_3</v>
@@ -1726,7 +1127,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_sc1_1</v>
@@ -1770,7 +1171,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f t="shared" ref="A8" si="1">"brou_"&amp;MID(C8,6,999)&amp;"_"&amp;D8</f>
         <v>brou_keine_sc1_2</v>
@@ -1815,7 +1216,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_sc1_3</v>
@@ -1856,7 +1257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_sc1_4</v>
@@ -1897,7 +1298,7 @@
         <v>enm_keine_sc1_1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_sc1_5</v>
@@ -1938,7 +1339,7 @@
         <v>enm_keine_sc1_2</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_ns2_1</v>
@@ -1971,21 +1372,21 @@
       <c r="N12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>57</v>
+      <c r="O12" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="P12" s="2" t="str">
         <f>A13</f>
         <v>brou_keine_ns2_2</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_ns2_2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>[1]keine!$A$6</f>
@@ -2004,19 +1405,19 @@
         <v>45</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M13" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>"brou_"&amp;MID(C14,6,999)&amp;"_"&amp;D14</f>
         <v>brou_keine_sc1_4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>[1]keine!$A$5</f>
@@ -2049,8 +1450,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/BossRoutine.xlsx
+++ b/settings/data/BossRoutine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF07D31-B4D5-41FB-9D65-5CE1C410420D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E9DE05-27A8-4646-903C-ECC45240CB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4764" yWindow="3588" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keine_routine" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>string</t>
   </si>
@@ -347,6 +347,9 @@
   <si>
     <t>500|999|1</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bprc_keine_sc2</t>
   </si>
 </sst>
 </file>
@@ -830,10 +833,10 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1414,14 +1417,13 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>"brou_"&amp;MID(C14,6,999)&amp;"_"&amp;D14</f>
-        <v>brou_keine_sc1_4</v>
+        <v>brou_keine_sc2_4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="2" t="str">
-        <f>[1]keine!$A$5</f>
-        <v>bprc_keine_sc1</v>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D14" s="2">
         <v>4</v>

--- a/settings/data/BossRoutine.xlsx
+++ b/settings/data/BossRoutine.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E9DE05-27A8-4646-903C-ECC45240CB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4764" yWindow="3588" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="keine_routine" sheetId="1" r:id="rId1"/>
@@ -19,6 +13,7 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>string</t>
   </si>
@@ -336,17 +331,22 @@
     <t>aimed_charge</t>
   </si>
   <si>
+    <t>500|999|1</t>
+  </si>
+  <si>
     <t>慧音二非中的招式，当BOSS头槌撞到版边时释放，创建发射随机弹的发弹点</t>
   </si>
   <si>
-    <t>dcrt_keine_ns2_1</t>
+    <t>慧音二非中的招式，同1但是颜色不同</t>
+  </si>
+  <si>
+    <t>brou_keine_ns2_4</t>
+  </si>
+  <si>
+    <t>慧音二非中的招式，同2但是颜色不同</t>
   </si>
   <si>
     <t>慧音二符中的招式，创建发射能够点燃战船敌人的环形火焰弹的发弹点</t>
-  </si>
-  <si>
-    <t>500|999|1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>bprc_keine_sc2</t>
@@ -355,8 +355,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +385,157 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="9"/>
       <name val="宋体"/>
@@ -392,30 +549,208 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -438,19 +773,264 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -463,28 +1043,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="keine"/>
@@ -513,7 +1143,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Enemy"/>
@@ -547,7 +1177,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="d4c"/>
@@ -572,6 +1202,30 @@
         <row r="12">
           <cell r="A12" t="str">
             <v>dcrt_keine_sc2_1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="d4c"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>dcrt_keine_ns2_1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>dcrt_keine_ns2_2</v>
           </cell>
         </row>
       </sheetData>
@@ -824,40 +1478,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="74" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.44140625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="38.21875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.88671875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.77734375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16.21875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="20.21875" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="20.2181818181818" style="3" customWidth="1"/>
+    <col min="2" max="2" width="74" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.7818181818182" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.2181818181818" style="3" customWidth="1"/>
+    <col min="5" max="6" width="20.4454545454545" style="3" customWidth="1"/>
+    <col min="7" max="9" width="25" style="3" customWidth="1"/>
+    <col min="10" max="10" width="38.2181818181818" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.2181818181818" style="4" customWidth="1"/>
+    <col min="12" max="12" width="20.2181818181818" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.8909090909091" style="3" customWidth="1"/>
+    <col min="14" max="14" width="20.7818181818182" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.2181818181818" style="4" customWidth="1"/>
+    <col min="16" max="16" width="20.2181818181818" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,57 +1562,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="140.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="1" customFormat="1" ht="151" spans="1:16">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1007,453 +1662,536 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="str">
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="str">
         <f>"brou_"&amp;MID(C4,6,999)&amp;"_"&amp;D4</f>
         <v>brou_keine_ns1_1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="3" t="str">
         <f>[1]keine!$A$4</f>
         <v>bprc_keine_ns1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="b">
+      <c r="E4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>9</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>99</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="2" t="str">
+      <c r="L4" s="3" t="str">
         <f>[2]Enemy!$A$16</f>
         <v>enm_keine_ns1_1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="str">
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="str">
         <f>"brou_"&amp;MID(C5,6,999)&amp;"_"&amp;D5</f>
         <v>brou_keine_ns1_2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="3" t="str">
         <f>[1]keine!$A$4</f>
         <v>bprc_keine_ns1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="b">
+      <c r="E5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>9</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>99</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="2" t="str">
+      <c r="L5" s="3" t="str">
         <f>[2]Enemy!$A$17</f>
         <v>enm_keine_ns1_2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="str">
-        <f t="shared" ref="A6:A13" si="0">"brou_"&amp;MID(C6,6,999)&amp;"_"&amp;D6</f>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="str">
+        <f t="shared" ref="A6:A15" si="0">"brou_"&amp;MID(C6,6,999)&amp;"_"&amp;D6</f>
         <v>brou_keine_ns1_3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="3" t="str">
         <f>[1]keine!$A$4</f>
         <v>bprc_keine_ns1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="b">
+      <c r="E6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>999999</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>99</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="2" t="str">
+      <c r="L6" s="3" t="str">
         <f>[3]d4c!$A$4</f>
         <v>dcrt_keine_ns1_1</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="str">
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_sc1_1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="3" t="str">
         <f>[1]keine!$A$5</f>
         <v>bprc_keine_sc1</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="b">
+      <c r="E7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>12</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>99</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="2" t="str">
+      <c r="L7" s="3" t="str">
         <f>[3]d4c!$A$7</f>
         <v>dcrt_keine_sc1_1</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="str">
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="str">
         <f t="shared" ref="A8" si="1">"brou_"&amp;MID(C8,6,999)&amp;"_"&amp;D8</f>
         <v>brou_keine_sc1_2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="3" t="str">
         <f>[1]keine!$A$5</f>
         <v>bprc_keine_sc1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="2" t="b">
+      <c r="E8" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>12</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>7</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>99</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="2" t="str">
+      <c r="L8" s="3" t="str">
         <f>[3]d4c!$A$7</f>
         <v>dcrt_keine_sc1_1</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="3">
         <f>M7</f>
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="str">
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_sc1_3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="3" t="str">
         <f>[1]keine!$A$5</f>
         <v>bprc_keine_sc1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="2" t="b">
+      <c r="E9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>5</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>99</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="2" t="str">
+      <c r="L9" s="3" t="str">
         <f>[3]d4c!$A$8</f>
         <v>dcrt_keine_sc1_2</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="str">
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_sc1_4</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C10" s="3" t="str">
         <f>[1]keine!$A$5</f>
         <v>bprc_keine_sc1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>4</v>
       </c>
-      <c r="E10" s="2" t="b">
+      <c r="E10" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>15</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <v>99</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="2" t="str">
+      <c r="L10" s="3" t="str">
         <f>[2]Enemy!$A$18</f>
         <v>enm_keine_sc1_1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="str">
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_sc1_5</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C11" s="3" t="str">
         <f>[1]keine!$A$5</f>
         <v>bprc_keine_sc1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>5</v>
       </c>
-      <c r="E11" s="2" t="b">
+      <c r="E11" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>15</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>99</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="2" t="str">
+      <c r="L11" s="3" t="str">
         <f>[2]Enemy!$A$19</f>
         <v>enm_keine_sc1_2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="str">
+    <row r="12" spans="1:16">
+      <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_ns2_1</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="3" t="str">
         <f>[1]keine!$A$6</f>
         <v>bprc_keine_ns2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="b">
+      <c r="E12" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F12" s="2">
-        <v>9</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12" s="3">
+        <v>18</v>
+      </c>
+      <c r="G12" s="3">
         <v>1</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
         <v>99</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" s="2" t="str">
+      <c r="O12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="3" t="str">
         <f>A13</f>
         <v>brou_keine_ns2_2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="str">
+    <row r="13" spans="1:13">
+      <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_ns2_2</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="2" t="str">
+      <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3" t="str">
         <f>[1]keine!$A$6</f>
         <v>bprc_keine_ns2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="2" t="b">
+      <c r="E13" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="L13" s="3" t="str">
+        <f>[4]d4c!$A$11</f>
+        <v>dcrt_keine_ns2_1</v>
+      </c>
+      <c r="M13" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" s="2" customFormat="1" spans="1:16">
       <c r="A14" s="2" t="str">
-        <f>"brou_"&amp;MID(C14,6,999)&amp;"_"&amp;D14</f>
-        <v>brou_keine_sc2_4</v>
+        <f t="shared" si="0"/>
+        <v>brou_keine_ns2_3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="2" t="str">
+        <f>[1]keine!$A$6</f>
+        <v>bprc_keine_ns2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="b">
+        <f>E12</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" ref="F14:P14" si="2">F12</f>
+        <v>18</v>
+      </c>
+      <c r="G14" s="2">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>physical</v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>aimed_charge</v>
+      </c>
+      <c r="O14" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>500|999|1</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:13">
+      <c r="A15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>brou_keine_ns2_4</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="2">
+      <c r="C15" s="2" t="str">
+        <f>[1]keine!$A$6</f>
+        <v>bprc_keine_ns2</v>
+      </c>
+      <c r="D15" s="2">
         <v>4</v>
       </c>
-      <c r="E14" s="2" t="b">
+      <c r="E15" s="2" t="b">
+        <f>E13</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="str">
+        <f>I13</f>
+        <v>dcreator</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f>J13</f>
+        <v>inplace</v>
+      </c>
+      <c r="L15" s="9" t="str">
+        <f>[4]d4c!$A$12</f>
+        <v>dcrt_keine_ns2_2</v>
+      </c>
+      <c r="M15" s="2">
+        <f>M13</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="3" t="str">
+        <f>"brou_"&amp;MID(C16,6,999)&amp;"_"&amp;D16</f>
+        <v>brou_keine_sc2_4</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F16" s="3">
         <v>12</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G16" s="3">
         <v>4</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="2" t="str">
+      <c r="L16" s="3" t="str">
         <f>[3]d4c!$A$12</f>
         <v>dcrt_keine_sc2_1</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M16" s="3">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/BossRoutine.xlsx
+++ b/settings/data/BossRoutine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="24750" windowHeight="11630"/>
   </bookViews>
   <sheets>
     <sheet name="keine_routine" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,13 +379,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -537,14 +530,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -891,137 +884,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1042,9 +1035,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1487,11 +1477,11 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1662,7 +1652,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:16">
       <c r="A4" s="3" t="str">
         <f>"brou_"&amp;MID(C4,6,999)&amp;"_"&amp;D4</f>
         <v>brou_keine_ns1_1</v>
@@ -1703,7 +1693,7 @@
         <v>enm_keine_ns1_1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:16">
       <c r="A5" s="3" t="str">
         <f>"brou_"&amp;MID(C5,6,999)&amp;"_"&amp;D5</f>
         <v>brou_keine_ns1_2</v>
@@ -1744,9 +1734,9 @@
         <v>enm_keine_ns1_2</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:16">
       <c r="A6" s="3" t="str">
-        <f t="shared" ref="A6:A15" si="0">"brou_"&amp;MID(C6,6,999)&amp;"_"&amp;D6</f>
+        <f t="shared" ref="A6:A16" si="0">"brou_"&amp;MID(C6,6,999)&amp;"_"&amp;D6</f>
         <v>brou_keine_ns1_3</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1785,7 +1775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:16">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_sc1_1</v>
@@ -1829,7 +1819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:16">
       <c r="A8" s="3" t="str">
         <f t="shared" ref="A8" si="1">"brou_"&amp;MID(C8,6,999)&amp;"_"&amp;D8</f>
         <v>brou_keine_sc1_2</v>
@@ -1874,7 +1864,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:16">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_sc1_3</v>
@@ -1915,7 +1905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:16">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_sc1_4</v>
@@ -1956,7 +1946,7 @@
         <v>enm_keine_sc1_1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:16">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_sc1_5</v>
@@ -2030,7 +2020,7 @@
       <c r="N12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="4" t="s">
         <v>57</v>
       </c>
       <c r="P12" s="3" t="str">
@@ -2038,7 +2028,7 @@
         <v>brou_keine_ns2_2</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:16">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_ns2_2</v>
@@ -2094,7 +2084,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="2"/>
@@ -2108,15 +2098,15 @@
         <f t="shared" si="2"/>
         <v>aimed_charge</v>
       </c>
-      <c r="O14" s="8" t="str">
+      <c r="O14" s="7" t="str">
         <f t="shared" si="2"/>
         <v>500|999|1</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:13">
+    <row r="15" s="2" customFormat="1" spans="1:16">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>brou_keine_ns2_4</v>
@@ -2143,7 +2133,7 @@
         <f>J13</f>
         <v>inplace</v>
       </c>
-      <c r="L15" s="9" t="str">
+      <c r="L15" s="8" t="str">
         <f>[4]d4c!$A$12</f>
         <v>dcrt_keine_ns2_2</v>
       </c>
@@ -2152,9 +2142,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:16">
       <c r="A16" s="3" t="str">
-        <f>"brou_"&amp;MID(C16,6,999)&amp;"_"&amp;D16</f>
+        <f t="shared" si="0"/>
         <v>brou_keine_sc2_4</v>
       </c>
       <c r="B16" s="3" t="s">
